--- a/Jogos_do_Dia/2024-04-17_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2024-04-17_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="99">
   <si>
     <t>League</t>
   </si>
@@ -202,6 +202,9 @@
     <t>20:00:00</t>
   </si>
   <si>
+    <t>21:30:00</t>
+  </si>
+  <si>
     <t>El Gounah</t>
   </si>
   <si>
@@ -241,18 +244,21 @@
     <t>Rosario Central</t>
   </si>
   <si>
+    <t>Atlético Mineiro</t>
+  </si>
+  <si>
+    <t>Palmeiras</t>
+  </si>
+  <si>
     <t>Fortaleza</t>
   </si>
   <si>
-    <t>Atlético Mineiro</t>
-  </si>
-  <si>
-    <t>Palmeiras</t>
-  </si>
-  <si>
     <t>Juventude</t>
   </si>
   <si>
+    <t>Flamengo</t>
+  </si>
+  <si>
     <t>Smouha SC</t>
   </si>
   <si>
@@ -292,16 +298,19 @@
     <t>Deportivo Riestra</t>
   </si>
   <si>
+    <t>Criciúma</t>
+  </si>
+  <si>
+    <t>Internacional</t>
+  </si>
+  <si>
     <t>Cruzeiro</t>
   </si>
   <si>
-    <t>Criciúma</t>
-  </si>
-  <si>
-    <t>Internacional</t>
-  </si>
-  <si>
     <t>Corinthians</t>
+  </si>
+  <si>
+    <t>São Paulo</t>
   </si>
 </sst>
 </file>
@@ -663,7 +672,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ18"/>
+  <dimension ref="A1:AQ19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -814,28 +823,28 @@
         <v>18</v>
       </c>
       <c r="E2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G2">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="H2">
         <v>2</v>
       </c>
       <c r="I2">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="J2">
-        <v>2.77</v>
+        <v>2.7</v>
       </c>
       <c r="K2">
-        <v>2.82</v>
+        <v>2.75</v>
       </c>
       <c r="L2">
-        <v>2.53</v>
+        <v>2.47</v>
       </c>
       <c r="M2">
         <v>1.48</v>
@@ -856,10 +865,10 @@
         <v>2.8</v>
       </c>
       <c r="S2">
-        <v>2.17</v>
+        <v>2.2</v>
       </c>
       <c r="T2">
-        <v>1.64</v>
+        <v>1.62</v>
       </c>
       <c r="U2">
         <v>1.83</v>
@@ -892,28 +901,28 @@
         <v>2.76</v>
       </c>
       <c r="AE2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AF2">
-        <v>0</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="AG2">
-        <v>0</v>
+        <v>1.99</v>
       </c>
       <c r="AH2">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="AI2">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="AJ2">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="AK2">
-        <v>0</v>
+        <v>2.62</v>
       </c>
       <c r="AL2">
-        <v>1.74</v>
+        <v>1.91</v>
       </c>
       <c r="AM2">
         <v>2.07</v>
@@ -925,10 +934,10 @@
         <v>1.68</v>
       </c>
       <c r="AP2">
-        <v>0</v>
+        <v>2.62</v>
       </c>
       <c r="AQ2">
-        <v>0</v>
+        <v>1.42</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -945,10 +954,10 @@
         <v>5</v>
       </c>
       <c r="E3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F3" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="G3">
         <v>1.6</v>
@@ -1076,10 +1085,10 @@
         <v>16</v>
       </c>
       <c r="E4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F4" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G4">
         <v>1.83</v>
@@ -1091,13 +1100,13 @@
         <v>6.5</v>
       </c>
       <c r="J4">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="K4">
-        <v>4.28</v>
+        <v>5.75</v>
       </c>
       <c r="L4">
-        <v>6.46</v>
+        <v>8</v>
       </c>
       <c r="M4">
         <v>1.22</v>
@@ -1118,10 +1127,10 @@
         <v>5.25</v>
       </c>
       <c r="S4">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="T4">
-        <v>2.57</v>
+        <v>2.65</v>
       </c>
       <c r="U4">
         <v>1.67</v>
@@ -1207,10 +1216,10 @@
         <v>17</v>
       </c>
       <c r="E5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F5" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G5">
         <v>1.91</v>
@@ -1222,13 +1231,13 @@
         <v>6</v>
       </c>
       <c r="J5">
-        <v>1.36</v>
+        <v>1.32</v>
       </c>
       <c r="K5">
-        <v>4.18</v>
+        <v>5.6</v>
       </c>
       <c r="L5">
-        <v>5.99</v>
+        <v>8</v>
       </c>
       <c r="M5">
         <v>1.25</v>
@@ -1249,10 +1258,10 @@
         <v>5</v>
       </c>
       <c r="S5">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="T5">
-        <v>2.44</v>
+        <v>2.56</v>
       </c>
       <c r="U5">
         <v>1.7</v>
@@ -1338,10 +1347,10 @@
         <v>19</v>
       </c>
       <c r="E6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F6" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G6">
         <v>3.2</v>
@@ -1353,13 +1362,13 @@
         <v>2.85</v>
       </c>
       <c r="J6">
-        <v>2.34</v>
+        <v>2.3</v>
       </c>
       <c r="K6">
-        <v>3.94</v>
+        <v>3.4</v>
       </c>
       <c r="L6">
-        <v>2.05</v>
+        <v>2.6</v>
       </c>
       <c r="M6">
         <v>1.33</v>
@@ -1380,10 +1389,10 @@
         <v>3.6</v>
       </c>
       <c r="S6">
-        <v>1.74</v>
+        <v>1.8</v>
       </c>
       <c r="T6">
-        <v>1.77</v>
+        <v>1.9</v>
       </c>
       <c r="U6">
         <v>1.66</v>
@@ -1469,10 +1478,10 @@
         <v>26</v>
       </c>
       <c r="E7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G7">
         <v>3</v>
@@ -1484,13 +1493,13 @@
         <v>3.2</v>
       </c>
       <c r="J7">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="K7">
-        <v>3.44</v>
+        <v>3.24</v>
       </c>
       <c r="L7">
-        <v>2.68</v>
+        <v>2.59</v>
       </c>
       <c r="M7">
         <v>1.33</v>
@@ -1511,10 +1520,10 @@
         <v>3.6</v>
       </c>
       <c r="S7">
-        <v>1.8</v>
+        <v>1.72</v>
       </c>
       <c r="T7">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="U7">
         <v>1.62</v>
@@ -1568,10 +1577,10 @@
         <v>0</v>
       </c>
       <c r="AL7">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="AM7">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="AN7">
         <v>0</v>
@@ -1600,28 +1609,28 @@
         <v>18</v>
       </c>
       <c r="E8" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F8" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G8">
         <v>2.5</v>
       </c>
       <c r="H8">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="I8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J8">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="K8">
-        <v>2.72</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>6.05</v>
+        <v>4.65</v>
       </c>
       <c r="M8">
         <v>1.83</v>
@@ -1636,22 +1645,22 @@
         <v>4.2</v>
       </c>
       <c r="Q8">
+        <v>1.91</v>
+      </c>
+      <c r="R8">
         <v>1.8</v>
       </c>
-      <c r="R8">
-        <v>1.94</v>
-      </c>
       <c r="S8">
-        <v>3.5</v>
+        <v>3.41</v>
       </c>
       <c r="T8">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="U8">
-        <v>3.4</v>
+        <v>2.75</v>
       </c>
       <c r="V8">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="W8">
         <v>1.09</v>
@@ -1678,43 +1687,43 @@
         <v>2.14</v>
       </c>
       <c r="AE8">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="AF8">
-        <v>0</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AG8">
-        <v>0</v>
+        <v>2.92</v>
       </c>
       <c r="AH8">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="AI8">
-        <v>0</v>
+        <v>2.65</v>
       </c>
       <c r="AJ8">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="AK8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AL8">
-        <v>0</v>
+        <v>2.29</v>
       </c>
       <c r="AM8">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="AN8">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="AO8">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="AP8">
-        <v>0</v>
+        <v>3.8</v>
       </c>
       <c r="AQ8">
-        <v>0</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="9" spans="1:43">
@@ -1731,10 +1740,10 @@
         <v>18</v>
       </c>
       <c r="E9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F9" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G9">
         <v>3.25</v>
@@ -1746,13 +1755,13 @@
         <v>3.6</v>
       </c>
       <c r="J9">
-        <v>2.39</v>
+        <v>2.33</v>
       </c>
       <c r="K9">
-        <v>2.77</v>
+        <v>2.96</v>
       </c>
       <c r="L9">
-        <v>3.02</v>
+        <v>2.84</v>
       </c>
       <c r="M9">
         <v>1.54</v>
@@ -1773,10 +1782,10 @@
         <v>2.52</v>
       </c>
       <c r="S9">
-        <v>2.45</v>
+        <v>2.37</v>
       </c>
       <c r="T9">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="U9">
         <v>2.1</v>
@@ -1809,43 +1818,43 @@
         <v>2.71</v>
       </c>
       <c r="AE9">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="AF9">
-        <v>0</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AG9">
-        <v>0</v>
+        <v>2.53</v>
       </c>
       <c r="AH9">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="AI9">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="AJ9">
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="AK9">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="AL9">
-        <v>0</v>
+        <v>2.03</v>
       </c>
       <c r="AM9">
-        <v>0</v>
+        <v>1.77</v>
       </c>
       <c r="AN9">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="AO9">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="AP9">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="AQ9">
-        <v>0</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="10" spans="1:43">
@@ -1862,10 +1871,10 @@
         <v>30</v>
       </c>
       <c r="E10" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F10" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G10">
         <v>7</v>
@@ -1877,13 +1886,13 @@
         <v>1.83</v>
       </c>
       <c r="J10">
-        <v>13</v>
+        <v>9.960000000000001</v>
       </c>
       <c r="K10">
-        <v>6.5</v>
+        <v>5.89</v>
       </c>
       <c r="L10">
-        <v>1.22</v>
+        <v>1.16</v>
       </c>
       <c r="M10">
         <v>1.29</v>
@@ -1904,10 +1913,10 @@
         <v>5</v>
       </c>
       <c r="S10">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="T10">
-        <v>2.48</v>
+        <v>2.55</v>
       </c>
       <c r="U10">
         <v>1.8</v>
@@ -1993,10 +2002,10 @@
         <v>7</v>
       </c>
       <c r="E11" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F11" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G11">
         <v>2.7</v>
@@ -2008,13 +2017,13 @@
         <v>3.65</v>
       </c>
       <c r="J11">
-        <v>2.07</v>
+        <v>2.05</v>
       </c>
       <c r="K11">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="L11">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="M11">
         <v>1.38</v>
@@ -2035,10 +2044,10 @@
         <v>3.45</v>
       </c>
       <c r="S11">
-        <v>1.81</v>
+        <v>1.91</v>
       </c>
       <c r="T11">
-        <v>1.82</v>
+        <v>1.93</v>
       </c>
       <c r="U11">
         <v>1.67</v>
@@ -2071,43 +2080,43 @@
         <v>2.53</v>
       </c>
       <c r="AE11">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="AF11">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AG11">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="AH11">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="AI11">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="AJ11">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="AK11">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="AL11">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="AM11">
-        <v>0</v>
+        <v>2.03</v>
       </c>
       <c r="AN11">
-        <v>0</v>
+        <v>2.12</v>
       </c>
       <c r="AO11">
-        <v>0</v>
+        <v>1.64</v>
       </c>
       <c r="AP11">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="AQ11">
-        <v>0</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="12" spans="1:43">
@@ -2124,10 +2133,10 @@
         <v>2</v>
       </c>
       <c r="E12" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F12" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="G12">
         <v>3</v>
@@ -2136,16 +2145,16 @@
         <v>2.1</v>
       </c>
       <c r="I12">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="J12">
-        <v>2.13</v>
+        <v>2.14</v>
       </c>
       <c r="K12">
-        <v>3.21</v>
+        <v>3.45</v>
       </c>
       <c r="L12">
-        <v>3.02</v>
+        <v>3.35</v>
       </c>
       <c r="M12">
         <v>1.44</v>
@@ -2166,10 +2175,10 @@
         <v>3</v>
       </c>
       <c r="S12">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="T12">
-        <v>1.75</v>
+        <v>1.83</v>
       </c>
       <c r="U12">
         <v>1.8</v>
@@ -2202,13 +2211,13 @@
         <v>0</v>
       </c>
       <c r="AE12">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="AF12">
-        <v>8.5</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="AG12">
-        <v>2.76</v>
+        <v>2.71</v>
       </c>
       <c r="AH12">
         <v>1.17</v>
@@ -2255,28 +2264,28 @@
         <v>2</v>
       </c>
       <c r="E13" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F13" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="G13">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="H13">
         <v>2.1</v>
       </c>
       <c r="I13">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="J13">
-        <v>1.83</v>
+        <v>1.9</v>
       </c>
       <c r="K13">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="L13">
-        <v>3.78</v>
+        <v>4.35</v>
       </c>
       <c r="M13">
         <v>1.44</v>
@@ -2297,16 +2306,16 @@
         <v>3.25</v>
       </c>
       <c r="S13">
-        <v>1.96</v>
+        <v>2.08</v>
       </c>
       <c r="T13">
         <v>1.74</v>
       </c>
       <c r="U13">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="V13">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="W13">
         <v>1.2</v>
@@ -2333,19 +2342,19 @@
         <v>0</v>
       </c>
       <c r="AE13">
-        <v>1.51</v>
+        <v>1.55</v>
       </c>
       <c r="AF13">
-        <v>9</v>
+        <v>8.1</v>
       </c>
       <c r="AG13">
-        <v>3.06</v>
+        <v>3.1</v>
       </c>
       <c r="AH13">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="AI13">
-        <v>0</v>
+        <v>5.7</v>
       </c>
       <c r="AJ13">
         <v>1.27</v>
@@ -2386,28 +2395,28 @@
         <v>14</v>
       </c>
       <c r="E14" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F14" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="G14">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="H14">
         <v>2</v>
       </c>
       <c r="I14">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="J14">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="K14">
         <v>3.6</v>
       </c>
       <c r="L14">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="M14">
         <v>1.5</v>
@@ -2428,10 +2437,10 @@
         <v>2.66</v>
       </c>
       <c r="S14">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="T14">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="U14">
         <v>2.2</v>
@@ -2464,13 +2473,13 @@
         <v>2.41</v>
       </c>
       <c r="AE14">
-        <v>1.59</v>
+        <v>1.49</v>
       </c>
       <c r="AF14">
-        <v>8.9</v>
+        <v>9.1</v>
       </c>
       <c r="AG14">
-        <v>2.83</v>
+        <v>3.18</v>
       </c>
       <c r="AH14">
         <v>1.32</v>
@@ -2517,118 +2526,118 @@
         <v>2</v>
       </c>
       <c r="E15" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F15" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G15">
-        <v>2.63</v>
+        <v>1.95</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="I15">
+        <v>8</v>
+      </c>
+      <c r="J15">
+        <v>1.37</v>
+      </c>
+      <c r="K15">
         <v>4.75</v>
       </c>
-      <c r="J15">
-        <v>1.89</v>
-      </c>
-      <c r="K15">
-        <v>3.2</v>
-      </c>
       <c r="L15">
-        <v>3.95</v>
+        <v>9</v>
       </c>
       <c r="M15">
-        <v>1.5</v>
+        <v>1.35</v>
       </c>
       <c r="N15">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="O15">
-        <v>1.08</v>
+        <v>1.04</v>
       </c>
       <c r="P15">
-        <v>7.5</v>
+        <v>13.5</v>
       </c>
       <c r="Q15">
-        <v>1.42</v>
+        <v>1.26</v>
       </c>
       <c r="R15">
-        <v>2.8</v>
+        <v>3.87</v>
       </c>
       <c r="S15">
-        <v>2.24</v>
+        <v>1.84</v>
       </c>
       <c r="T15">
-        <v>1.53</v>
+        <v>1.96</v>
       </c>
       <c r="U15">
+        <v>2.2</v>
+      </c>
+      <c r="V15">
+        <v>1.62</v>
+      </c>
+      <c r="W15">
+        <v>1.04</v>
+      </c>
+      <c r="X15">
+        <v>1.14</v>
+      </c>
+      <c r="Y15">
+        <v>2.75</v>
+      </c>
+      <c r="Z15">
+        <v>0</v>
+      </c>
+      <c r="AA15">
+        <v>0</v>
+      </c>
+      <c r="AB15">
+        <v>0</v>
+      </c>
+      <c r="AC15">
+        <v>0</v>
+      </c>
+      <c r="AD15">
+        <v>0</v>
+      </c>
+      <c r="AE15">
+        <v>1.26</v>
+      </c>
+      <c r="AF15">
+        <v>12.5</v>
+      </c>
+      <c r="AG15">
+        <v>4.64</v>
+      </c>
+      <c r="AH15">
+        <v>1.19</v>
+      </c>
+      <c r="AI15">
+        <v>3.9</v>
+      </c>
+      <c r="AJ15">
+        <v>1.4</v>
+      </c>
+      <c r="AK15">
+        <v>2.75</v>
+      </c>
+      <c r="AL15">
+        <v>2.1</v>
+      </c>
+      <c r="AM15">
         <v>2.05</v>
       </c>
-      <c r="V15">
+      <c r="AN15">
+        <v>2.05</v>
+      </c>
+      <c r="AO15">
         <v>1.7</v>
       </c>
-      <c r="W15">
-        <v>1.22</v>
-      </c>
-      <c r="X15">
-        <v>1.28</v>
-      </c>
-      <c r="Y15">
-        <v>1.65</v>
-      </c>
-      <c r="Z15">
-        <v>0</v>
-      </c>
-      <c r="AA15">
-        <v>0</v>
-      </c>
-      <c r="AB15">
-        <v>0</v>
-      </c>
-      <c r="AC15">
-        <v>0</v>
-      </c>
-      <c r="AD15">
-        <v>0</v>
-      </c>
-      <c r="AE15">
-        <v>1.83</v>
-      </c>
-      <c r="AF15">
-        <v>8</v>
-      </c>
-      <c r="AG15">
-        <v>2.2</v>
-      </c>
-      <c r="AH15">
-        <v>1.25</v>
-      </c>
-      <c r="AI15">
-        <v>3.6</v>
-      </c>
-      <c r="AJ15">
-        <v>1.31</v>
-      </c>
-      <c r="AK15">
-        <v>3.15</v>
-      </c>
-      <c r="AL15">
-        <v>2</v>
-      </c>
-      <c r="AM15">
-        <v>2.25</v>
-      </c>
-      <c r="AN15">
-        <v>2</v>
-      </c>
-      <c r="AO15">
-        <v>1.73</v>
-      </c>
       <c r="AP15">
-        <v>2.6</v>
+        <v>2.48</v>
       </c>
       <c r="AQ15">
         <v>1.44</v>
@@ -2648,67 +2657,67 @@
         <v>2</v>
       </c>
       <c r="E16" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F16" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="G16">
-        <v>1.91</v>
+        <v>2.3</v>
       </c>
       <c r="H16">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="I16">
-        <v>7.5</v>
+        <v>5.5</v>
       </c>
       <c r="J16">
-        <v>1.37</v>
+        <v>1.58</v>
       </c>
       <c r="K16">
-        <v>4.65</v>
+        <v>3.85</v>
       </c>
       <c r="L16">
-        <v>7.4</v>
+        <v>6.25</v>
       </c>
       <c r="M16">
+        <v>1.44</v>
+      </c>
+      <c r="N16">
+        <v>2.63</v>
+      </c>
+      <c r="O16">
+        <v>1.06</v>
+      </c>
+      <c r="P16">
+        <v>8.5</v>
+      </c>
+      <c r="Q16">
         <v>1.35</v>
       </c>
-      <c r="N16">
-        <v>3</v>
-      </c>
-      <c r="O16">
-        <v>1.04</v>
-      </c>
-      <c r="P16">
-        <v>13.5</v>
-      </c>
-      <c r="Q16">
-        <v>1.26</v>
-      </c>
       <c r="R16">
-        <v>3.87</v>
+        <v>3.1</v>
       </c>
       <c r="S16">
-        <v>1.78</v>
+        <v>2.08</v>
       </c>
       <c r="T16">
-        <v>1.96</v>
+        <v>1.74</v>
       </c>
       <c r="U16">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="V16">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="W16">
-        <v>1.04</v>
+        <v>1.1</v>
       </c>
       <c r="X16">
-        <v>1.14</v>
+        <v>1.2</v>
       </c>
       <c r="Y16">
-        <v>2.75</v>
+        <v>2.2</v>
       </c>
       <c r="Z16">
         <v>0</v>
@@ -2726,43 +2735,43 @@
         <v>0</v>
       </c>
       <c r="AE16">
-        <v>1.21</v>
+        <v>1.44</v>
       </c>
       <c r="AF16">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="AG16">
-        <v>5.6</v>
+        <v>3.44</v>
       </c>
       <c r="AH16">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AI16">
-        <v>3.9</v>
+        <v>3.3</v>
       </c>
       <c r="AJ16">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="AK16">
-        <v>2.75</v>
+        <v>2.77</v>
       </c>
       <c r="AL16">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="AM16">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="AN16">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="AO16">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="AP16">
-        <v>2.48</v>
+        <v>2.9</v>
       </c>
       <c r="AQ16">
-        <v>1.44</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="17" spans="1:43">
@@ -2779,121 +2788,121 @@
         <v>2</v>
       </c>
       <c r="E17" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F17" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G17">
-        <v>2.3</v>
+        <v>2.6</v>
       </c>
       <c r="H17">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="I17">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="J17">
-        <v>1.55</v>
+        <v>2.02</v>
       </c>
       <c r="K17">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="L17">
-        <v>5.5</v>
+        <v>3.95</v>
       </c>
       <c r="M17">
+        <v>1.5</v>
+      </c>
+      <c r="N17">
+        <v>2.5</v>
+      </c>
+      <c r="O17">
+        <v>1.08</v>
+      </c>
+      <c r="P17">
+        <v>7.5</v>
+      </c>
+      <c r="Q17">
+        <v>1.42</v>
+      </c>
+      <c r="R17">
+        <v>2.8</v>
+      </c>
+      <c r="S17">
+        <v>2.38</v>
+      </c>
+      <c r="T17">
+        <v>1.58</v>
+      </c>
+      <c r="U17">
+        <v>2.05</v>
+      </c>
+      <c r="V17">
+        <v>1.7</v>
+      </c>
+      <c r="W17">
+        <v>1.22</v>
+      </c>
+      <c r="X17">
+        <v>1.28</v>
+      </c>
+      <c r="Y17">
+        <v>1.65</v>
+      </c>
+      <c r="Z17">
+        <v>0</v>
+      </c>
+      <c r="AA17">
+        <v>0</v>
+      </c>
+      <c r="AB17">
+        <v>0</v>
+      </c>
+      <c r="AC17">
+        <v>0</v>
+      </c>
+      <c r="AD17">
+        <v>0</v>
+      </c>
+      <c r="AE17">
+        <v>1.9</v>
+      </c>
+      <c r="AF17">
+        <v>7.6</v>
+      </c>
+      <c r="AG17">
+        <v>2.27</v>
+      </c>
+      <c r="AH17">
+        <v>1.25</v>
+      </c>
+      <c r="AI17">
+        <v>3.6</v>
+      </c>
+      <c r="AJ17">
+        <v>1.31</v>
+      </c>
+      <c r="AK17">
+        <v>3.15</v>
+      </c>
+      <c r="AL17">
+        <v>2</v>
+      </c>
+      <c r="AM17">
+        <v>2.25</v>
+      </c>
+      <c r="AN17">
+        <v>2</v>
+      </c>
+      <c r="AO17">
+        <v>1.73</v>
+      </c>
+      <c r="AP17">
+        <v>2.6</v>
+      </c>
+      <c r="AQ17">
         <v>1.44</v>
-      </c>
-      <c r="N17">
-        <v>2.63</v>
-      </c>
-      <c r="O17">
-        <v>1.06</v>
-      </c>
-      <c r="P17">
-        <v>8.5</v>
-      </c>
-      <c r="Q17">
-        <v>1.35</v>
-      </c>
-      <c r="R17">
-        <v>3.1</v>
-      </c>
-      <c r="S17">
-        <v>2.03</v>
-      </c>
-      <c r="T17">
-        <v>1.67</v>
-      </c>
-      <c r="U17">
-        <v>2</v>
-      </c>
-      <c r="V17">
-        <v>1.75</v>
-      </c>
-      <c r="W17">
-        <v>1.1</v>
-      </c>
-      <c r="X17">
-        <v>1.2</v>
-      </c>
-      <c r="Y17">
-        <v>2.2</v>
-      </c>
-      <c r="Z17">
-        <v>0</v>
-      </c>
-      <c r="AA17">
-        <v>0</v>
-      </c>
-      <c r="AB17">
-        <v>0</v>
-      </c>
-      <c r="AC17">
-        <v>0</v>
-      </c>
-      <c r="AD17">
-        <v>0</v>
-      </c>
-      <c r="AE17">
-        <v>1.26</v>
-      </c>
-      <c r="AF17">
-        <v>10</v>
-      </c>
-      <c r="AG17">
-        <v>4.64</v>
-      </c>
-      <c r="AH17">
-        <v>1.29</v>
-      </c>
-      <c r="AI17">
-        <v>3.3</v>
-      </c>
-      <c r="AJ17">
-        <v>1.39</v>
-      </c>
-      <c r="AK17">
-        <v>2.77</v>
-      </c>
-      <c r="AL17">
-        <v>2.2</v>
-      </c>
-      <c r="AM17">
-        <v>1.95</v>
-      </c>
-      <c r="AN17">
-        <v>2.2</v>
-      </c>
-      <c r="AO17">
-        <v>1.6</v>
-      </c>
-      <c r="AP17">
-        <v>2.9</v>
-      </c>
-      <c r="AQ17">
-        <v>1.36</v>
       </c>
     </row>
     <row r="18" spans="1:43">
@@ -2910,10 +2919,10 @@
         <v>2</v>
       </c>
       <c r="E18" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F18" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="G18">
         <v>3.75</v>
@@ -2925,13 +2934,13 @@
         <v>3.4</v>
       </c>
       <c r="J18">
-        <v>2.51</v>
+        <v>2.75</v>
       </c>
       <c r="K18">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="L18">
-        <v>2.65</v>
+        <v>2.63</v>
       </c>
       <c r="M18">
         <v>1.5</v>
@@ -2952,10 +2961,10 @@
         <v>2.88</v>
       </c>
       <c r="S18">
-        <v>2.19</v>
+        <v>2.28</v>
       </c>
       <c r="T18">
-        <v>1.55</v>
+        <v>1.63</v>
       </c>
       <c r="U18">
         <v>2.05</v>
@@ -2988,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="AE18">
-        <v>1.69</v>
+        <v>1.95</v>
       </c>
       <c r="AF18">
-        <v>8</v>
+        <v>7.3</v>
       </c>
       <c r="AG18">
-        <v>2.54</v>
+        <v>2.23</v>
       </c>
       <c r="AH18">
         <v>1.25</v>
@@ -3024,6 +3033,137 @@
         <v>2.95</v>
       </c>
       <c r="AQ18">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:43">
+      <c r="A19" t="s">
+        <v>50</v>
+      </c>
+      <c r="B19" s="2">
+        <v>45399</v>
+      </c>
+      <c r="C19" t="s">
+        <v>62</v>
+      </c>
+      <c r="D19">
+        <v>2</v>
+      </c>
+      <c r="E19" t="s">
+        <v>80</v>
+      </c>
+      <c r="F19" t="s">
+        <v>98</v>
+      </c>
+      <c r="G19">
+        <v>2.2</v>
+      </c>
+      <c r="H19">
+        <v>2.2</v>
+      </c>
+      <c r="I19">
+        <v>6</v>
+      </c>
+      <c r="J19">
+        <v>1.55</v>
+      </c>
+      <c r="K19">
+        <v>4.1</v>
+      </c>
+      <c r="L19">
+        <v>6.25</v>
+      </c>
+      <c r="M19">
+        <v>1.4</v>
+      </c>
+      <c r="N19">
+        <v>2.75</v>
+      </c>
+      <c r="O19">
+        <v>1.06</v>
+      </c>
+      <c r="P19">
+        <v>8.5</v>
+      </c>
+      <c r="Q19">
+        <v>1.33</v>
+      </c>
+      <c r="R19">
+        <v>3.2</v>
+      </c>
+      <c r="S19">
+        <v>1.94</v>
+      </c>
+      <c r="T19">
+        <v>1.86</v>
+      </c>
+      <c r="U19">
+        <v>2</v>
+      </c>
+      <c r="V19">
+        <v>1.75</v>
+      </c>
+      <c r="W19">
+        <v>1.09</v>
+      </c>
+      <c r="X19">
+        <v>1.22</v>
+      </c>
+      <c r="Y19">
+        <v>2.15</v>
+      </c>
+      <c r="Z19">
+        <v>0</v>
+      </c>
+      <c r="AA19">
+        <v>0</v>
+      </c>
+      <c r="AB19">
+        <v>0</v>
+      </c>
+      <c r="AC19">
+        <v>0</v>
+      </c>
+      <c r="AD19">
+        <v>0</v>
+      </c>
+      <c r="AE19">
+        <v>1.44</v>
+      </c>
+      <c r="AF19">
+        <v>8.5</v>
+      </c>
+      <c r="AG19">
+        <v>3.35</v>
+      </c>
+      <c r="AH19">
+        <v>1.22</v>
+      </c>
+      <c r="AI19">
+        <v>3.55</v>
+      </c>
+      <c r="AJ19">
+        <v>1.42</v>
+      </c>
+      <c r="AK19">
+        <v>2.55</v>
+      </c>
+      <c r="AL19">
+        <v>2.1</v>
+      </c>
+      <c r="AM19">
+        <v>1.97</v>
+      </c>
+      <c r="AN19">
+        <v>2.15</v>
+      </c>
+      <c r="AO19">
+        <v>1.6</v>
+      </c>
+      <c r="AP19">
+        <v>2.75</v>
+      </c>
+      <c r="AQ19">
         <v>1.35</v>
       </c>
     </row>

--- a/Jogos_do_Dia/2024-04-17_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2024-04-17_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -832,19 +832,19 @@
         <v>3.5</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="I2">
         <v>3.1</v>
       </c>
       <c r="J2">
-        <v>2.7</v>
+        <v>2.84</v>
       </c>
       <c r="K2">
-        <v>2.75</v>
+        <v>3.05</v>
       </c>
       <c r="L2">
-        <v>2.47</v>
+        <v>2.26</v>
       </c>
       <c r="M2">
         <v>1.48</v>
@@ -865,16 +865,16 @@
         <v>2.8</v>
       </c>
       <c r="S2">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="T2">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="U2">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="V2">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="W2">
         <v>1.53</v>
@@ -886,10 +886,10 @@
         <v>1.38</v>
       </c>
       <c r="Z2">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AA2">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AB2">
         <v>1.42</v>
@@ -922,7 +922,7 @@
         <v>2.62</v>
       </c>
       <c r="AL2">
-        <v>1.91</v>
+        <v>2.1</v>
       </c>
       <c r="AM2">
         <v>2.07</v>
@@ -1017,10 +1017,10 @@
         <v>4.33</v>
       </c>
       <c r="Z3">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AA3">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AB3">
         <v>1.94</v>
@@ -1100,13 +1100,13 @@
         <v>6.5</v>
       </c>
       <c r="J4">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="K4">
-        <v>5.75</v>
+        <v>5.3</v>
       </c>
       <c r="L4">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="M4">
         <v>1.22</v>
@@ -1127,10 +1127,10 @@
         <v>5.25</v>
       </c>
       <c r="S4">
-        <v>1.42</v>
+        <v>1.5</v>
       </c>
       <c r="T4">
-        <v>2.65</v>
+        <v>2.4</v>
       </c>
       <c r="U4">
         <v>1.67</v>
@@ -1148,10 +1148,10 @@
         <v>2.95</v>
       </c>
       <c r="Z4">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AA4">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AB4">
         <v>2.34</v>
@@ -1172,10 +1172,10 @@
         <v>6</v>
       </c>
       <c r="AH4">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="AI4">
-        <v>0</v>
+        <v>6.1</v>
       </c>
       <c r="AJ4">
         <v>1.22</v>
@@ -1234,10 +1234,10 @@
         <v>1.32</v>
       </c>
       <c r="K5">
-        <v>5.6</v>
+        <v>5.2</v>
       </c>
       <c r="L5">
-        <v>8</v>
+        <v>7.7</v>
       </c>
       <c r="M5">
         <v>1.25</v>
@@ -1258,10 +1258,10 @@
         <v>5</v>
       </c>
       <c r="S5">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="T5">
-        <v>2.56</v>
+        <v>2.4</v>
       </c>
       <c r="U5">
         <v>1.7</v>
@@ -1279,7 +1279,7 @@
         <v>2.8</v>
       </c>
       <c r="Z5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AA5">
         <v>3</v>
@@ -1362,13 +1362,13 @@
         <v>2.85</v>
       </c>
       <c r="J6">
-        <v>2.3</v>
+        <v>3.4</v>
       </c>
       <c r="K6">
-        <v>3.4</v>
+        <v>6.99</v>
       </c>
       <c r="L6">
-        <v>2.6</v>
+        <v>1.49</v>
       </c>
       <c r="M6">
         <v>1.33</v>
@@ -1389,10 +1389,10 @@
         <v>3.6</v>
       </c>
       <c r="S6">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="T6">
-        <v>1.9</v>
+        <v>1.87</v>
       </c>
       <c r="U6">
         <v>1.66</v>
@@ -1410,10 +1410,10 @@
         <v>1.38</v>
       </c>
       <c r="Z6">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="AA6">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AB6">
         <v>1.95</v>
@@ -1493,13 +1493,13 @@
         <v>3.2</v>
       </c>
       <c r="J7">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="K7">
-        <v>3.24</v>
+        <v>3.45</v>
       </c>
       <c r="L7">
-        <v>2.59</v>
+        <v>2.53</v>
       </c>
       <c r="M7">
         <v>1.33</v>
@@ -1520,10 +1520,10 @@
         <v>3.6</v>
       </c>
       <c r="S7">
-        <v>1.72</v>
+        <v>1.76</v>
       </c>
       <c r="T7">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="U7">
         <v>1.62</v>
@@ -1541,10 +1541,10 @@
         <v>1.57</v>
       </c>
       <c r="Z7">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="AA7">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AB7">
         <v>2.12</v>
@@ -1556,25 +1556,25 @@
         <v>3.68</v>
       </c>
       <c r="AE7">
-        <v>0</v>
+        <v>1.82</v>
       </c>
       <c r="AF7">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="AG7">
-        <v>0</v>
+        <v>2.22</v>
       </c>
       <c r="AH7">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="AI7">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="AJ7">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AK7">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="AL7">
         <v>1.85</v>
@@ -1583,16 +1583,16 @@
         <v>1.95</v>
       </c>
       <c r="AN7">
-        <v>0</v>
+        <v>2.32</v>
       </c>
       <c r="AO7">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="AP7">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="AQ7">
-        <v>0</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="8" spans="1:43">
@@ -1624,13 +1624,13 @@
         <v>6</v>
       </c>
       <c r="J8">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="L8">
-        <v>4.65</v>
+        <v>5</v>
       </c>
       <c r="M8">
         <v>1.83</v>
@@ -1651,16 +1651,16 @@
         <v>1.8</v>
       </c>
       <c r="S8">
-        <v>3.41</v>
+        <v>2.75</v>
       </c>
       <c r="T8">
-        <v>1.27</v>
+        <v>1.4</v>
       </c>
       <c r="U8">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="V8">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="W8">
         <v>1.09</v>
@@ -1672,10 +1672,10 @@
         <v>2.01</v>
       </c>
       <c r="Z8">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AA8">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="AB8">
         <v>1.15</v>
@@ -1746,22 +1746,22 @@
         <v>88</v>
       </c>
       <c r="G9">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="H9">
         <v>1.91</v>
       </c>
       <c r="I9">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="J9">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="K9">
-        <v>2.96</v>
+        <v>2.75</v>
       </c>
       <c r="L9">
-        <v>2.84</v>
+        <v>3.2</v>
       </c>
       <c r="M9">
         <v>1.54</v>
@@ -1782,10 +1782,10 @@
         <v>2.52</v>
       </c>
       <c r="S9">
-        <v>2.37</v>
+        <v>2.5</v>
       </c>
       <c r="T9">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="U9">
         <v>2.1</v>
@@ -1803,10 +1803,10 @@
         <v>1.4</v>
       </c>
       <c r="Z9">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AA9">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AB9">
         <v>1.47</v>
@@ -1886,13 +1886,13 @@
         <v>1.83</v>
       </c>
       <c r="J10">
-        <v>9.960000000000001</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="K10">
-        <v>5.89</v>
+        <v>5.3</v>
       </c>
       <c r="L10">
-        <v>1.16</v>
+        <v>1.3</v>
       </c>
       <c r="M10">
         <v>1.29</v>
@@ -1934,10 +1934,10 @@
         <v>1.07</v>
       </c>
       <c r="Z10">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AA10">
-        <v>2.27</v>
+        <v>2.19</v>
       </c>
       <c r="AB10">
         <v>1.33</v>
@@ -2017,13 +2017,13 @@
         <v>3.65</v>
       </c>
       <c r="J11">
-        <v>2.05</v>
+        <v>2.29</v>
       </c>
       <c r="K11">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="L11">
-        <v>3.05</v>
+        <v>2.96</v>
       </c>
       <c r="M11">
         <v>1.38</v>
@@ -2044,10 +2044,10 @@
         <v>3.45</v>
       </c>
       <c r="S11">
-        <v>1.91</v>
+        <v>1.85</v>
       </c>
       <c r="T11">
-        <v>1.93</v>
+        <v>1.85</v>
       </c>
       <c r="U11">
         <v>1.67</v>
@@ -2139,22 +2139,22 @@
         <v>91</v>
       </c>
       <c r="G12">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="H12">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="I12">
         <v>3.6</v>
       </c>
       <c r="J12">
-        <v>2.14</v>
+        <v>2.39</v>
       </c>
       <c r="K12">
-        <v>3.45</v>
+        <v>3.34</v>
       </c>
       <c r="L12">
-        <v>3.35</v>
+        <v>2.97</v>
       </c>
       <c r="M12">
         <v>1.44</v>
@@ -2175,10 +2175,10 @@
         <v>3</v>
       </c>
       <c r="S12">
-        <v>1.98</v>
+        <v>2.05</v>
       </c>
       <c r="T12">
-        <v>1.83</v>
+        <v>1.7</v>
       </c>
       <c r="U12">
         <v>1.8</v>
@@ -2211,13 +2211,13 @@
         <v>0</v>
       </c>
       <c r="AE12">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="AF12">
-        <v>8.699999999999999</v>
+        <v>9.9</v>
       </c>
       <c r="AG12">
-        <v>2.71</v>
+        <v>2.78</v>
       </c>
       <c r="AH12">
         <v>1.17</v>
@@ -2270,22 +2270,22 @@
         <v>92</v>
       </c>
       <c r="G13">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="H13">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="I13">
         <v>4.5</v>
       </c>
       <c r="J13">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="K13">
-        <v>3.4</v>
+        <v>3.58</v>
       </c>
       <c r="L13">
-        <v>4.35</v>
+        <v>4.1</v>
       </c>
       <c r="M13">
         <v>1.44</v>
@@ -2306,16 +2306,16 @@
         <v>3.25</v>
       </c>
       <c r="S13">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="T13">
-        <v>1.74</v>
+        <v>1.67</v>
       </c>
       <c r="U13">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="V13">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="W13">
         <v>1.2</v>
@@ -2342,13 +2342,13 @@
         <v>0</v>
       </c>
       <c r="AE13">
-        <v>1.55</v>
+        <v>1.49</v>
       </c>
       <c r="AF13">
-        <v>8.1</v>
+        <v>10.5</v>
       </c>
       <c r="AG13">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="AH13">
         <v>1.09</v>
@@ -2401,19 +2401,19 @@
         <v>93</v>
       </c>
       <c r="G14">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="I14">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="J14">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="K14">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="L14">
         <v>4.5</v>
@@ -2437,16 +2437,16 @@
         <v>2.66</v>
       </c>
       <c r="S14">
-        <v>2.35</v>
+        <v>2.15</v>
       </c>
       <c r="T14">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="U14">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="V14">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="W14">
         <v>1.19</v>
@@ -2473,13 +2473,13 @@
         <v>2.41</v>
       </c>
       <c r="AE14">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="AF14">
-        <v>9.1</v>
+        <v>8.35</v>
       </c>
       <c r="AG14">
-        <v>3.18</v>
+        <v>3.48</v>
       </c>
       <c r="AH14">
         <v>1.32</v>
@@ -2532,10 +2532,10 @@
         <v>94</v>
       </c>
       <c r="G15">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="H15">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="I15">
         <v>8</v>
@@ -2544,10 +2544,10 @@
         <v>1.37</v>
       </c>
       <c r="K15">
-        <v>4.75</v>
+        <v>4.7</v>
       </c>
       <c r="L15">
-        <v>9</v>
+        <v>8.9</v>
       </c>
       <c r="M15">
         <v>1.35</v>
@@ -2568,10 +2568,10 @@
         <v>3.87</v>
       </c>
       <c r="S15">
-        <v>1.84</v>
+        <v>1.75</v>
       </c>
       <c r="T15">
-        <v>1.96</v>
+        <v>1.95</v>
       </c>
       <c r="U15">
         <v>2.2</v>
@@ -2604,13 +2604,13 @@
         <v>0</v>
       </c>
       <c r="AE15">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="AF15">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="AG15">
-        <v>4.64</v>
+        <v>4.68</v>
       </c>
       <c r="AH15">
         <v>1.19</v>
@@ -2625,7 +2625,7 @@
         <v>2.75</v>
       </c>
       <c r="AL15">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="AM15">
         <v>2.05</v>
@@ -2663,7 +2663,7 @@
         <v>95</v>
       </c>
       <c r="G16">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="H16">
         <v>2.1</v>
@@ -2672,13 +2672,13 @@
         <v>5.5</v>
       </c>
       <c r="J16">
-        <v>1.58</v>
+        <v>1.72</v>
       </c>
       <c r="K16">
-        <v>3.85</v>
+        <v>3.64</v>
       </c>
       <c r="L16">
-        <v>6.25</v>
+        <v>5.05</v>
       </c>
       <c r="M16">
         <v>1.44</v>
@@ -2699,16 +2699,16 @@
         <v>3.1</v>
       </c>
       <c r="S16">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="T16">
-        <v>1.74</v>
+        <v>1.7</v>
       </c>
       <c r="U16">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="V16">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="W16">
         <v>1.1</v>
@@ -2735,13 +2735,13 @@
         <v>0</v>
       </c>
       <c r="AE16">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="AF16">
-        <v>9.5</v>
+        <v>10.5</v>
       </c>
       <c r="AG16">
-        <v>3.44</v>
+        <v>3.7</v>
       </c>
       <c r="AH16">
         <v>1.29</v>
@@ -2803,13 +2803,13 @@
         <v>5</v>
       </c>
       <c r="J17">
-        <v>2.02</v>
+        <v>1.87</v>
       </c>
       <c r="K17">
-        <v>3.25</v>
+        <v>3.42</v>
       </c>
       <c r="L17">
-        <v>3.95</v>
+        <v>4.4</v>
       </c>
       <c r="M17">
         <v>1.5</v>
@@ -2830,10 +2830,10 @@
         <v>2.8</v>
       </c>
       <c r="S17">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="T17">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="U17">
         <v>2.05</v>
@@ -2866,13 +2866,13 @@
         <v>0</v>
       </c>
       <c r="AE17">
-        <v>1.9</v>
+        <v>1.87</v>
       </c>
       <c r="AF17">
-        <v>7.6</v>
+        <v>9</v>
       </c>
       <c r="AG17">
-        <v>2.27</v>
+        <v>2.36</v>
       </c>
       <c r="AH17">
         <v>1.25</v>
@@ -2925,22 +2925,22 @@
         <v>97</v>
       </c>
       <c r="G18">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="H18">
-        <v>1.95</v>
+        <v>1.83</v>
       </c>
       <c r="I18">
         <v>3.4</v>
       </c>
       <c r="J18">
-        <v>2.75</v>
+        <v>3.24</v>
       </c>
       <c r="K18">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="L18">
-        <v>2.63</v>
+        <v>2.42</v>
       </c>
       <c r="M18">
         <v>1.5</v>
@@ -2961,16 +2961,16 @@
         <v>2.88</v>
       </c>
       <c r="S18">
-        <v>2.28</v>
+        <v>2.2</v>
       </c>
       <c r="T18">
-        <v>1.63</v>
+        <v>1.6</v>
       </c>
       <c r="U18">
-        <v>2.05</v>
+        <v>2.25</v>
       </c>
       <c r="V18">
-        <v>1.7</v>
+        <v>1.57</v>
       </c>
       <c r="W18">
         <v>1.36</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="AE18">
-        <v>1.95</v>
+        <v>1.72</v>
       </c>
       <c r="AF18">
-        <v>7.3</v>
+        <v>9.1</v>
       </c>
       <c r="AG18">
-        <v>2.23</v>
+        <v>2.64</v>
       </c>
       <c r="AH18">
         <v>1.25</v>
@@ -3056,22 +3056,22 @@
         <v>98</v>
       </c>
       <c r="G19">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="H19">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="I19">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="J19">
-        <v>1.55</v>
+        <v>1.66</v>
       </c>
       <c r="K19">
-        <v>4.1</v>
+        <v>3.75</v>
       </c>
       <c r="L19">
-        <v>6.25</v>
+        <v>5.4</v>
       </c>
       <c r="M19">
         <v>1.4</v>
@@ -3092,16 +3092,16 @@
         <v>3.2</v>
       </c>
       <c r="S19">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="T19">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="U19">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="V19">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="W19">
         <v>1.09</v>
@@ -3128,13 +3128,13 @@
         <v>0</v>
       </c>
       <c r="AE19">
-        <v>1.44</v>
+        <v>1.47</v>
       </c>
       <c r="AF19">
         <v>8.5</v>
       </c>
       <c r="AG19">
-        <v>3.35</v>
+        <v>3.2</v>
       </c>
       <c r="AH19">
         <v>1.22</v>
